--- a/formated_outputs/execution_log/crossdisc/qwen/qwen-极端气候应对.xlsx
+++ b/formated_outputs/execution_log/crossdisc/qwen/qwen-极端气候应对.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>task_name</t>
   </si>
@@ -47,6 +47,10 @@
     <t>Crew Manager</t>
   </si>
   <si>
+    <t xml:space="preserve">物理学教授
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">数学教授
 </t>
   </si>
@@ -55,197 +59,317 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">物理学教授
+    <t xml:space="preserve">人工智能教授
 </t>
   </si>
   <si>
-    <t xml:space="preserve">化学教授
-</t>
-  </si>
-  <si>
-    <t>针对'极端气候应对'这一主题，能否提炼出3-5个核心的、具体的子问题？这些子问题需要适合由不同学科专家进行深入分析，同时相互之间具备关联性，能够构成解决整个大问题的基础。</t>
+    <t>根据用户提出的问题：极端气候应对，提炼出其中核心的3-5个子问题。每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。</t>
   </si>
   <si>
     <t xml:space="preserve">请委派一位学科专家，根据用户提出的问题：极端气候应对，提炼出其中核心的3-5个子问题，用中文回答。 每个子问题应明确、具体，并适合由不同学科专家进行深入分析，子问题之间具备关联性，总共构成解决整个大问题的基础。
 </t>
   </si>
   <si>
+    <t>极端气候事件的预测与预警系统构建</t>
+  </si>
+  <si>
+    <t>极端气候事件对生态系统的影响及恢复策略</t>
+  </si>
+  <si>
+    <t>社会经济系统对极端气候事件的脆弱性评估与适应策略</t>
+  </si>
+  <si>
+    <t>极端气候应对中的公众参与与教育</t>
+  </si>
+  <si>
+    <t>国际和区域合作机制在极端气候应对中的角色</t>
+  </si>
+  <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择高度相关的多个子问题，进行全面深入的分析和解决，用中文回答。 给出的解决方案应足够专业，尽量具体、具备逻辑性。要求每个学科专家都进行回答，并且所有专家回答的问题集合能覆盖所有子问题。 当前主问题为：极端气候应对
 </t>
   </si>
   <si>
-    <t>请从数学的角度分析极端气候条件下的社会经济政策与公众参与策略，包括如何评估不同社会群体的脆弱性，以及如何通过教育和培训提高公众的应对能力。</t>
-  </si>
-  <si>
     <t xml:space="preserve">请不同的学科专家，基于所在学科的专业知识，选择相关的多个子问题，从辅助学科的角度补充该子任务的解决方法，提供新的思维方式、潜在联系，用中文回答。 回答应突出你学科的独特贡献以及与已知视角之间的互补关系。 当前主问题为：极端气候应对
 </t>
   </si>
   <si>
-    <t>整合极端气候事件的预测与预警系统的分析结果，包括利用先进的气象观测技术、卫星遥感、大数据分析等手段，提高预测精度和预警能力，减少灾害带来的损失。</t>
-  </si>
-  <si>
-    <t>评估极端气候对生态系统的影响，包括不同生态系统（如森林、湿地、草原等）的响应机制及其对生物多样性的影响，提出具体的生态保护措施。</t>
-  </si>
-  <si>
-    <t>研究如何在城市规划和建筑设计中融入极端气候适应性理念，如提高建筑物的防洪、隔热性能，建设绿色基础设施以增强城市韧性，减少极端气候事件对城市运行和居民生活的影响。</t>
-  </si>
-  <si>
-    <t>评估极端气候对主要农作物生长周期、产量及质量的影响，研究适应性耕作技术、作物品种改良等措施，以及如何通过政策支持帮助农民降低风险，保障粮食安全。</t>
-  </si>
-  <si>
-    <t>分析不同社会群体在极端气候事件中的脆弱性，评估现有社会经济政策的有效性，探讨如何建立更加包容和有效的社会保障体系，同时促进公众对极端气候风险的认知和应对行动的参与。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">请你整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：极端气候应对
+    <t>整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，并撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、“拟解决的科学问题”、“拟提出的技术路线”、“预期成果”。要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请委派一位和课题最相关的学科专家，整合所有子任务的小结与分析结果，构建一个系统性的、具备操作性的科学解决方案，最终撰写一份项目申请书，包括“摘要”、“研究背景和意义”、“研究内容”、 “拟解决的科学问题”、 “拟提出的技术路线”、“预期成果”，要求详细介绍“拟提出的技术路线”，技术路线应该对应上研究内容的每个点，要求体现专业性和综合性，用中文回答。 当前主问题为：极端气候应对
 </t>
   </si>
   <si>
-    <t>针对“极端气候应对”这一主题，可以从以下几个核心的、具体的子问题入手，这些子问题适合由不同学科的专家进行深入分析，同时互相之间具备关联性，能够构成解决整个大问题的基础：
-1. **极端气候事件的预测与预警系统建设**：由气象学、地球物理学、信息技术专家共同研究。探讨如何利用先进的气象观测技术、卫星遥感、大数据分析等手段，提高对极端气候事件（如暴雨、台风、高温热浪等）的预测精度和预警能力，减少灾害带来的损失。
-2. **极端气候对生态系统影响的评估**：由生态学、环境科学、地理学专家共同探讨。分析极端气候条件下，不同生态系统（如森林、湿地、草原等）的响应机制及其对生物多样性的影响，评估生态系统服务功能的变化，为制定生态保护与恢复策略提供科学依据。
-3. **城市规划与建筑设计中的极端气候适应性研究**：由城市规划、建筑设计、土木工程专家共同参与。研究如何在城市规划和建筑设计中融入极端气候适应性理念，比如提高建筑物的防洪、隔热性能，建设绿色基础设施以增强城市韧性，减少极端气候事件对城市运行和居民生活的影响。
-4. **极端气候条件下的农业生产调整**：由农业科学、农业经济学、环境科学专家共同探讨。评估极端气候对主要农作物生长周期、产量及质量的影响，研究适应性耕作技术、作物品种改良等措施，以及如何通过政策支持帮助农民降低风险，保障粮食安全。
-5. **应对极端气候的社会经济政策与公众参与策略**：由经济学、社会学、公共管理学专家共同研究。分析不同社会群体在极端气候事件中的脆弱性，评估现有社会经济政策的有效性，探讨如何建立更加包容和有效的社会保障体系，同时促进公众对极端气候风险的认知和应对行动的参与。
-以上子问题的提出，不仅考虑了极端气候应对的多学科交叉特点，也强调了从预防、适应到恢复的全过程管理，为构建综合性的极端气候应对体系奠定了基础。</t>
-  </si>
-  <si>
-    <t>1. **极端气候事件的预测与预警系统建设**：由气象学、地球物理学、信息技术专家共同研究。探讨如何利用先进的气象观测技术、卫星遥感、大数据分析等手段，提高对极端气候事件（如暴雨、台风、高温热浪等）的预测精度和预警能力，减少灾害带来的损失。
-2. **极端气候对生态系统影响的评估**：由生态学、环境科学、地理学专家共同探讨。分析极端气候条件下，不同生态系统（如森林、湿地、草原等）的响应机制及其对生物多样性的影响，评估生态系统服务功能的变化，为制定生态保护与恢复策略提供科学依据。
-3. **城市规划与建筑设计中的极端气候适应性研究**：由城市规划、建筑设计、土木工程专家共同参与。研究如何在城市规划和建筑设计中融入极端气候适应性理念，比如提高建筑物的防洪、隔热性能，建设绿色基础设施以增强城市韧性，减少极端气候事件对城市运行和居民生活的影响。
-4. **极端气候条件下的农业生产调整**：由农业科学、农业经济学、环境科学专家共同探讨。评估极端气候对主要农作物生长周期、产量及质量的影响，研究适应性耕作技术、作物品种改良等措施，以及如何通过政策支持帮助农民降低风险，保障粮食安全。
-5. **应对极端气候的社会经济政策与公众参与策略**：由经济学、社会学、公共管理学专家共同研究。分析不同社会群体在极端气候事件中的脆弱性，评估现有社会经济政策的有效性，探讨如何建立更加包容和有效的社会保障体系，同时促进公众对极端气候风险的认知和应对行动的参与。
-以上子问题的提出，不仅考虑了极端气候应对的多学科交叉特点，也强调了从预防、适应到恢复的全过程管理，为构建综合性的极端气候应对体系奠定了基础。</t>
-  </si>
-  <si>
-    <t>针对极端气候应对的问题，我们提出了五个主要子问题，并邀请了不同领域的专家从各自的专业角度进行深入分析，提出解决方案。以下是各学科专家可能提供的分析与建议：
-1. **极端气候事件的预测与预警系统建设**（地理学教授）
-   - 利用先进的气象观测技术，如多普勒雷达、地面观测站等，收集实时气象数据。
-   - 通过卫星遥感技术，监测大范围的气候现象，如台风路径、降雨分布等。
-   - 应用大数据分析技术，结合历史气象数据，建立预测模型，提高极端气候事件的预测精度。
-   - 开发多渠道预警系统，包括手机应用、社交媒体、传统媒体等，确保预警信息及时传达给公众。
-   - 与政府和相关部门合作，制定应急预案，减少灾害带来的损失。
-2. **极端气候对生态系统影响的评估**（生物学教授）
-   - 研究极端气候条件下，不同生态系统（如森林、湿地、草原等）的响应机制，包括植物生长周期的变化、动物迁徙模式的改变等。
-   - 评估极端气候对生物多样性的影响，特别是对濒危物种的威胁。
-   - 评估生态系统服务功能的变化，如碳固定、水源调节、土壤保持等，为制定生态保护与恢复策略提供科学依据。
-   - 提出具体的生态保护措施，如建立自然保护区、实施生态修复项目等。
-3. **城市规划与建筑设计中的极端气候适应性研究**（物理学教授）
-   - 在城市规划中，考虑极端气候对城市的影响，如提高城市排水系统的标准，减少城市内涝风险。
-   - 在建筑设计中，融入极端气候适应性理念，如提高建筑物的防洪、隔热性能，建设绿色屋顶和墙面，以减少城市热岛效应。
-   - 推广绿色基础设施，如雨水花园、透水铺装等，增强城市的韧性，减少极端气候事件对城市运行和居民生活的影响。
-   - 与城市管理部门合作，制定适应性城市规划和建筑设计的政策标准。
-4. **极端气候条件下的农业生产调整**（化学教授）
-   - 评估极端气候对主要农作物生长周期、产量及质量的影响，特别是对粮食安全的威胁。
-   - 研究适应性耕作技术，如节水灌溉、保护性耕作等，提高农作物的抗逆性。
-   - 推动作物品种改良，研发耐旱、耐热、抗病虫害的新品种。
-   - 通过政策支持，帮助农民降低风险，如提供农业保险、补贴等，保障粮食安全。
-5. **应对极端气候的社会经济政策与公众参与策略**（数学教授）
-   - 分析不同社会群体在极端气候事件中的脆弱性，特别是低收入群体、老年人、儿童等。
-   - 评估现有社会经济政策的有效性，提出改进措施，如建立更加包容和有效的社会保障体系。
-   - 推动公众对极端气候风险的认知，通过教育和培训，提高公众的应对能力。
-   - 促进公众参与极端气候应对行动，如参与社区自救互救、志愿服务等。
-以上各学科专家的分析与建议，覆盖了极端气候应对的多个方面，从预防、适应到恢复，构建了一个综合性的应对体系，为有效应对极端气候提供了科学依据和具体措施。</t>
-  </si>
-  <si>
-    <t>在极端气候条件下，社会经济政策与公众参与策略的数学分析可以从以下几个方面进行探讨：
-1. 评估不同社会群体的脆弱性
-   - **脆弱性模型构建**：可以构建一个多维度的脆弱性评估模型，其中包括社会经济状态、地理位置、基础设施水平等指标。这些指标可以通过适当的数学公式进行量化，例如利用线性组合或权重法计算不同群体的综合脆弱性评分。
-   - **数据驱动的脆弱性分析**：利用统计学方法，如回归分析、聚类分析等，分析历史数据中的极端气候事件对不同社会群体的影响，以识别出高风险区域和高风险人群。
-   - **模型验证与优化**：通过引入机器学习算法，如支持向量机、随机森林等，进一步提高模型的预测能力和准确性，确保政策制定者能够基于最准确的数据做出决策。
-2. 公众参与策略的优化
-   - **公众参与模型**：可以建立一个基于博弈论的公众参与模型，分析不同利益相关者在极端气候应对中的行为和决策过程。例如，政府、企业和个人在减少碳排放、提高能效等方面的博弈关系。
-   - **教育与培训的效果评估**：通过设计实验或利用已有数据，采用因果推断方法评估教育和培训项目对提高公众应对极端气候能力的影响。这可以通过构建干预模型来实现，如差分-差分(DID)分析或倾向得分匹配(PSM)。
-   - **政策激励机制的设计**：利用数学优化方法，如线性规划、整数规划等，设计有效的激励机制，鼓励公众采取更有益于应对极端气候的行为。例如，通过积分系统、税收减免、补贴等方式激励节能减排。
-3. 跨学科合作与数据共享
-   - **跨学科模型集成**：将来自地理学、生物学、物理学和化学等领域的模型和数据集成到一个统一的框架中，以便更全面地理解极端气候的影响及其应对策略。这可能涉及到复杂的数学建模，如多目标优化、动态系统理论等。
-   - **数据共享平台**：建立一个数据共享平台，促进不同学科之间的数据交流和合作。可以使用图论中的网络分析方法来优化这个平台的结构，确保数据的高效流动和利用。
-通过上述数学方法的应用，不仅能够更好地评估不同社会群体在极端气候条件下的脆弱性，还能为提高公众的应对能力提供科学依据，从而为制定有效的社会经济政策和公众参与策略提供支持。这些策略的实施将有助于构建更加韧性的社会，减少极端气候事件带来的负面影响。</t>
-  </si>
-  <si>
-    <t>在极端气候条件下，社会经济政策与公众参与策略的数学分析可以从以下几个方面进行探讨：
-1. **评估不同社会群体的脆弱性**
-   - **脆弱性模型构建**：可以构建一个多维度的脆弱性评估模型，其中包括社会经济状态、地理位置、基础设施水平等指标。这些指标可以通过适当的数学公式进行量化，例如利用线性组合或权重法计算不同群体的综合脆弱性评分。
-   - **数据驱动的脆弱性分析**：利用统计学方法，如回归分析、聚类分析等，分析历史数据中的极端气候事件对不同社会群体的影响，以识别出高风险区域和高风险人群。
-   - **模型验证与优化**：通过引入机器学习算法，如支持向量机、随机森林等，进一步提高模型的预测能力和准确性，确保政策制定者能够基于最准确的数据做出决策。
-2. **公众参与策略的优化**
-   - **公众参与模型**：可以建立一个基于博弈论的公众参与模型，分析不同利益相关者在极端气候应对中的行为和决策过程。例如，政府、企业和个人在减少碳排放、提高能效等方面的博弈关系。
-   - **教育与培训的效果评估**：通过设计实验或利用已有数据，采用因果推断方法评估教育和培训项目对提高公众应对极端气候能力的影响。这可以通过构建干预模型来实现，如差分-差分(DID)分析或倾向得分匹配(PSM)。
-   - **政策激励机制的设计**：利用数学优化方法，如线性规划、整数规划等，设计有效的激励机制，鼓励公众采取更有益于应对极端气候的行为。例如，通过积分系统、税收减免、补贴等方式激励节能减排。
-3. **跨学科合作与数据共享**
-   - **跨学科模型集成**：将来自地理学、生物学、物理学和化学等领域的模型和数据集成到一个统一的框架中，以便更全面地理解极端气候的影响及其应对策略。这可能涉及到复杂的数学建模，如多目标优化、动态系统理论等。
-   - **数据共享平台**：建立一个数据共享平台，促进不同学科之间的数据交流和合作。可以使用图论中的网络分析方法来优化这个平台的结构，确保数据的高效流动和利用。
-通过上述数学方法的应用，不仅能够更好地评估不同社会群体在极端气候条件下的脆弱性，还能为提高公众的应对能力提供科学依据，从而为制定有效的社会经济政策和公众参与策略提供支持。这些策略的实施将有助于构建更加韧性的社会，减少极端气候事件带来的负面影响。</t>
-  </si>
-  <si>
-    <t>在构建极端气候事件的预测与预警系统中，我们地理学专家可以与气象学、地球物理学、信息技术专家紧密合作，整合多学科的知识和技术，以提高对极端气候事件的预测精度和预警能力。具体可以从以下几个方面入手：
-1. **先进的气象观测技术**：通过地面气象站、高空探测、雷达监测等手段，收集高时空分辨率的气象数据，如温度、湿度、风速、降水量等。这些观测数据对于了解当前的气象条件和短时天气变化至关重要，是预测极端气候事件的基础。
-2. **卫星遥感技术**：利用卫星遥感技术可以大范围、长时间连续监测地球表面和大气层的状态，如云系分布、海洋温度、陆地表面温度等。通过分析这些数据，可以更早地识别出可能导致极端气候事件的气象条件，提高预测的提前量。
-3. **大数据分析与机器学习**：结合上述观测数据，运用大数据分析技术和机器学习算法，寻找极端气候事件发生前的气象特征模式。通过历史数据的学习，模型能够识别出可能导致极端天气的气象参数组合，从而提高预测的准确性和可靠性。
-4. **预警系统的构建与优化**：基于高精度的预测结果，构建一套快速响应的预警系统。该系统需要能够自动分析预测数据，评估灾害发生的可能性和严重程度，并及时向政府、企业和公众发布预警信息。同时，预警系统的用户界面需要设计得直观易懂，确保信息能够被快速理解和采取行动。
-5. **跨学科合作与知识共享**：鉴于极端气候事件的影响涉及到多个领域，因此需要不同学科的专家共同参与，通过定期的交流会议和项目合作，促进知识和技术的共享，共同提高极端气候事件的预测与预警水平。
-6. **社会经济影响评估**：在预警系统中加入对社会经济影响的评估模块，根据预测结果评估极端气候事件对农业、交通、能源等关键领域的潜在影响，为决策者提供科学依据，帮助提前采取措施减少损失。
-7. **公众教育与意识提升**：加强对公众的教育，提高人们对极端气候事件的认识和自我保护能力，建立社区层面的应急响应机制，减少灾害发生时的伤亡和财产损失。
-通过上述措施的综合实施，我们能够显著提高对极端气候事件的预测精度和预警能力，有效减少灾害带来的损失，保护人民生命财产安全。</t>
-  </si>
-  <si>
-    <t>极端气候事件，如干旱、洪水、热浪和寒潮等，对全球不同生态系统的结构和功能产生了深远的影响，这些影响不仅改变了生态系统的内部动态，还对生物多样性产生了直接和间接的影响。评估这些影响并提出有效的生态保护措施是当前生态学研究和实践中的重要任务。
-### 极端气候对不同生态系统的影响
-1. **森林生态系统**：极端气候事件，特别是干旱和热浪，可能导致树木死亡率增加，森林火灾风险上升，以及病虫害的爆发。这些变化会进一步影响森林的碳汇能力，降低生物多样性和森林生态系统的恢复力。
-2. **湿地生态系统**：洪水和干旱等极端气候条件会严重干扰湿地的水文周期，导致水生生物的栖息地丧失，影响湿地生态系统的过滤功能，减少生物多样性。长期的水位变化还可能导致盐度变化，影响湿地植物的组成。
-3. **草原生态系统**：极端气候事件，如干旱，会减少植物的生产力，导致放牧压力增加，土壤侵蚀加剧，最终影响草原生态系统的稳定性和生物多样性。
-### 生物多样性的响应机制
-生物多样性在面对极端气候事件时表现出不同的响应机制：
-- **物种迁移**：一些物种通过迁移至更适合的生境来适应环境变化，但这可能导致原生境的生物多样性下降。
-- **生理适应**：一些物种能够通过生理上的适应，如耐旱性增强，来应对环境变化。
-- **生态位动态**：物种间的相互作用（如竞争、捕食关系）可能因环境变化而重新调整，影响群落结构。
-### 生态保护措施
-1. **建立保护区网络**：扩大和优化保护区网络，确保关键物种和生态系统的保护，促进物种迁移走廊的建立。
-2. **恢复受损生态系统**：采取生态恢复措施，如植被重建、湿地恢复等，以增强生态系统的恢复力和碳捕获能力。
-3. **适应性管理**：实施适应性管理策略，根据气候变化的影响调整管理措施，如调整放牧强度、控制外来物种入侵等。
-4. **提高公众意识**：通过教育和宣传提高公众对气候变化影响的认识，促进社会各界参与生态保护行动。
-5. **国际合作**：加强国际间的合作，共享数据和经验，共同应对全球气候变化对生态系统的影响。
-通过上述措施，可以有效减轻极端气候对生态系统和生物多样性的影响，促进生态系统的可持续发展。这不仅需要科学研究的支持，还需要政策制定者、管理者、非政府组织和公众的共同努力。</t>
-  </si>
-  <si>
-    <t>在城市规划和建筑设计中融入极端气候适应性理念是一项复杂而多学科的任务，需要物理学、城市规划、建筑设计、土木工程等领域的专家共同合作。以下是在这一领域中，从物理学角度出发，可以采取的一些策略和方法：
-1. **提高建筑物的防洪性能：**
-   - **水力学与流体力学应用：** 借助水力学理论，优化城市排水系统的设计，以提高其排水效率和防洪能力。使用流体力学模拟城市洪水流动情况，分析不同条件下洪水的可能路径，从而在城市规划中避免将重要设施和居民区设在洪水高风险区域。
-   - **材料科学：** 开发和使用新型防水建筑材料，提高建筑物的防水性能，减少洪水对建筑物内部结构的损害。
-2. **增强建筑物的隔热性能：**
-   - **热传导理论：** 借助热传导理论，优化建筑墙体、屋顶等结构的隔热设计。选择或开发具有低导热系数的建筑材料，减少内外环境的热交换，从而降低空调使用频率，节约能源。
-   - **辐射热管理：** 利用材料的辐射特性，设计反射或吸收太阳辐射的外墙和屋顶，减少夏季建筑内部温度的升高。
-3. **建设绿色基础设施：**
-   - **生态系统服务理论：** 通过建设公园、绿地、湿地等绿色空间，利用自然生态系统的调节作用，增强城市的雨水吸收、净化和蒸发能力，减轻城市热岛效应，提高城市生态韧性。
-   - **可持续能源利用：** 在设计绿色基础设施时，结合太阳能光伏板、风力发电机等可再生能源设备，既为城市提供清洁能源，又能减少碳排放，提高环境质量。
-4. **城市微观气候调控：**
-   - **气候建模：** 使用气候模型预测不同城市规划方案对局部气候的影响，包括温度、湿度、风速等因素，从而优化城市空间布局，改善城市居住环境。
-   - **风洞实验与CFD模拟：** 通过风洞实验和计算流体动力学（CFD）模拟，研究城市建筑布局对风场的影响，设计有利于自然通风的建筑群，减少热岛效应，提高居民舒适度。
-5. **综合风险评估与管理：**
-   - **多学科合作：** 物理学专家需要与城市规划、建筑设计、公共政策等领域的专家紧密合作，共同进行城市极端气候风险的评估与管理，制定有效的应对策略。
-   - **适应性规划：** 根据极端气候事件的历史数据和未来预测，采取适应性规划策略，如建立可快速恢复的基础设施系统，确保在极端气候事件后，城市功能能够迅速恢复正常。
-通过上述方法，我们可以有效地在城市规划和建筑设计中融入极端气候适应性理念，不仅提高城市对极端气候事件的抵御能力，还能促进可持续城市发展，为居民创造更加安全、健康、宜居的城市环境。</t>
-  </si>
-  <si>
-    <t>在极端气候条件下，农业生产面临着前所未有的挑战，这些挑战不仅影响着作物的生长周期，还直接影响到产量和质量。根据最新的研究和实地数据，极端气候事件如干旱、洪水、高温和风暴等对主要农作物的影响主要表现在以下几个方面：
-1. **生长周期的变化**：极端气候条件可能导致作物的生长周期发生变化，例如，高温和干旱可以使某些作物的生长周期缩短，而过多的水分则可能导致生长周期延长。这种变化不仅影响作物的生长速率，还可能影响其开花和结实的过程，进而影响最终的产量。
-2. **产量的影响**：极端气候条件下的水分供需不平衡、温度升高或急剧变化等，都会直接影响作物的光合作用效率、呼吸速率、水分利用效率等，进而影响作物的产量。例如，高温可以导致花粉不育，减少作物受精的成功率，从而降低产量。
-3. **质量的影响**：除了产量，极端气候还会影响作物的质量，包括其营养价值、口感和外观等。例如，持续的高温和干旱可以导致果实发育不良，影响其大小和形状，降低其商品价值。此外，极端气候还可能导致作物的病虫害增加，进一步影响作物的质量。
-为了应对这些挑战，科学界和农业界正在探索多种适应性耕作技术和作物品种改良措施，包括：
-- **适应性耕作技术**：这包括改进灌溉技术以提高水的使用效率，使用遮阳网或温室等设施来调节作物生长环境的温度，以及采用土壤管理技术来提高土壤的保水能力和肥力。此外，精准农业技术的应用，如通过卫星和无人机监测作物生长状态，可以更及时地发现并解决作物生长中的问题。
-- **作物品种改良**：通过传统育种和现代生物技术手段，开发适应极端气候条件的作物新品种。这些新品种不仅具有更好的耐旱、耐热、抗病虫害等特性，还可能具有更高的产量和更好的质量。例如，通过基因编辑技术，可以培育出在高温条件下仍能保持高效光合作用能力的作物。
-- **政策支持**：政府和相关机构应通过提供技术支持、财政补贴、保险等措施，帮助农民减少因极端气候造成的经济损失，提高他们的适应能力。此外，建立和完善农业气象信息服务体系，及时向农民提供准确的气象信息，帮助他们更好地规划作物种植和管理。
-综上所述，通过综合应用适应性耕作技术、作物品种改良以及政策支持等措施，可以有效减轻极端气候对农业生产的影响，保障粮食安全。然而，这需要跨学科的合作，包括农业科学、环境科学、经济学等多个领域的专家共同努力，才能实现可持续的农业发展。</t>
-  </si>
-  <si>
-    <t>在分析不同社会群体在极端气候事件中的脆弱性时，我们首先需要构建一个综合的数学模型，该模型能够整合多个影响因素，例如地理位置、经济状况、社会资源分配、教育水平等。通过使用图论，我们可以将不同社会群体之间的联系和资源流动表示为网络结构，每个节点代表一个特定的社会群体，边则代表群体间的资源交换或社会互动。这种模型有助于识别网络中的关键节点，即在极端气候事件发生时可能受到最严重影响的群体。
-接下来，我们利用概率论来评估不同群体在面临极端气候事件时的脆弱程度。这包括对极端气候事件发生的频率和强度的概率分布进行建模，以及对群体应对这些事件的能力进行量化。通过这些分析，我们可以确定哪些群体最需要社会经济政策的支持，以及这些政策能够以何种方式减轻群体的脆弱性。
-评估现有社会经济政策的有效性，我们需要收集相关的数据，包括政策实施前后的社会经济指标变化、极端气候事件的影响、政策受益群体的反馈等。通过建立回归模型，可以分析政策变量对结果变量的影响，从而评估政策的有效性。此外，我们还可以使用优化理论来分析政策目标与实际成果之间的差距，寻找可能的改进措施。
-为了探讨如何建立更加包容和有效的社会保障体系，我们需要考虑如何通过政策设计来减少社会不平等、提高资源分配的效率、增强社区的韧性。这可能包括但不限于提供更广泛的保险覆盖、建立灾害应对基金、提高基础设施的抗灾能力等。通过数学建模，我们可以模拟不同的政策方案，预测它们对社会经济的影响，从而为政策制定者提供科学依据。
-最后，促进公众对极端气候风险的认知和应对行动的参与，需要采取一系列措施，包括教育、培训、公共宣传等。我们可以通过建立行为模型来研究不同信息传播策略对公众行为的影响，从而设计出更有效的宣传方案。同时，鼓励公众参与气候风险的评估和管理过程，也是提高社会整体应对能力的重要途径。
-综上所述，通过将数学工具应用于极端气候应对的社会经济政策分析中，我们不仅能够更准确地识别和评估群体脆弱性，还能够为政策制定提供科学支持，促进更加包容和有效的社会保障体系的建设，以及公众参与意识和行动的提升。</t>
-  </si>
-  <si>
-    <t>以上是针对极端气候应对问题的系统性科学解决方案及项目申请书，涵盖了极端气候事件的预测与预警系统建设、极端气候对生态系统影响的评估、城市规划与建筑设计中的极端气候适应性研究、极端气候条件下的农业生产调整，以及应对极端气候的社会经济政策与公众参与策略。通过这些措施，项目旨在提高社会对极端气候事件的预测、应对和恢复能力，保障人民生命财产安全，促进可持续发展。</t>
+    <t>针对“极端气候应对”这一主题，可以提炼出以下3-5个核心子问题，这些问题将由不同学科的专家进行深入分析：
+1. **极端气候事件的预测与预警系统构建**：此问题关注于如何提高极端气候事件（如热浪、洪水、干旱、强风暴等）的预测精度和预警能力。需要气象学、统计学、计算机科学等领域的专家合作，利用历史数据和模型模拟来提高预测能力，同时开发有效的预警系统，确保信息能够及时准确地传达给相关决策者和公众。
+2. **极端气候事件对生态系统的影响及恢复策略**：此问题聚焦于极端气候事件如何影响不同类型的生态系统，包括森林、湿地、海洋等，以及生态系统在遭受破坏后的恢复能力。需要生态学、环境科学、生物学等领域的专家共同研究，探索生态系统保护与恢复的有效措施。
+3. **社会经济系统对极端气候事件的脆弱性评估与适应策略**：此问题探讨不同社会经济系统（如农业、工业、基础设施等）面对极端气候事件的脆弱性，以及如何通过政策和技术手段增强其适应能力。需要经济学、社会学、城市规划等领域的专家进行研究，制定适应性措施以减少极端气候事件对社会经济的影响。
+4. **极端气候应对中的公众参与与教育**：此问题关注如何通过教育和参与机制提高公众对极端气候风险的认识，以及在面对极端气候事件时的自我保护能力。需要教育学、传播学、心理学等领域的专家合作，设计有效的教育内容和参与机制，促进公众的积极参与和应对准备。
+5. **国际和区域合作机制在极端气候应对中的角色**：此问题探讨在全球和区域层面上，如何通过国际合作机制（如国际协议、资金支持、技术转移等）来共同应对极端气候事件。需要国际关系、法律、环境政策等领域的专家共同研究，建立有效的合作框架，以促进资源的有效利用和应对措施的协调实施。
+这些问题相互关联，共同构成了应对极端气候事件的综合框架，为有效减轻极端气候的影响提供了多学科、多角度的研究基础。</t>
+  </si>
+  <si>
+    <t>极端气候事件的预测与预警系统构建是一个多学科交叉的复杂工程，它不仅需要物理学的知识来理解自然现象的本质，还需要气象学、统计学和计算机科学等领域的专业知识。在构建此类系统时，我们可以从以下几个方面着手：
+1. **数据收集与处理**：首先，需要收集大量的历史气象数据，包括温度、湿度、风速、降雨量等，这些数据可以从各国的气象站、卫星观测及历史记录中获得。数据处理方面，要进行数据清洗、校验和标准化，确保数据的质量和可用性。
+2. **模型开发与模拟**：在数据的基础上，开发气候模型，这些模型可以是基于物理原理的数值模型，也可以是统计模型。数值模型通过求解大气动力学方程和热力学方程来预测气候状态，而统计模型则利用历史数据中的统计规律来预测未来的气候条件。此过程中，量子物理中的某些原理和技术，如量子计算，也可用于加速复杂模型的计算。
+3. **极端事件识别**：利用开发的模型，识别极端气候事件的特征和触发条件。这一步骤中，可以采用机器学习算法，如支持向量机、神经网络等，来提高事件识别的准确性。通过训练模型，使其能够从大量的数据中学习到极端气候事件的特征模式。
+4. **预警系统构建**：开发有效的预警系统，确保信息能够及时准确地传达给相关决策者和公众。预警系统应具备高度的可靠性和响应速度，能够在极端气候事件即将发生时提供预警。这需要与通信、信息技术领域的专家合作，确保信息传播的有效性和广泛性。
+5. **公众教育与培训**：提高公众对极端气候事件的认识和应对能力。通过教育和培训，使公众了解预警信息的意义，学会在预警发布时采取适当的自我保护措施。
+6. **持续改进与反馈**：建立一个持续改进的机制，根据实际预警效果和公众反馈，不断优化预测模型和预警系统。定期评估系统的性能，确保其始终处于最佳状态。
+通过上述步骤，我们可以构建一个高效、准确的极端气候事件预测与预警系统，为减灾防灾提供有力的技术支持。在这个过程中，跨学科团队的合作至关重要，它不仅能够整合各领域的优势资源，还能促进新技术的发展和应用。</t>
+  </si>
+  <si>
+    <t>极端气候事件的预测与预警系统构建是一项复杂的跨学科任务，旨在通过数学模型和先进计算技术，结合气象学、统计学、计算机科学等领域的知识，提高对热浪、洪水、干旱、强风暴等极端气候事件的预测准确性和预警能力。以下是我对构建此类系统的建议：
+1. **数据收集与处理**：首先，需要收集历史气象数据，包括但不限于温度、降水、风速、气压等关键气象参数，以及极端气候事件的发生记录。这些数据可以从国家气象局、国际气象组织等机构获取。数据的质量和完整性是提高预测准确性的基础，因此还需要对数据进行清洗、缺失值处理和异常值检测。
+2. **统计模型与机器学习**：利用统计方法和机器学习算法对历史气象数据进行分析，识别极端气候事件发生的前兆和模式。可以使用时间序列分析来检测长期趋势和周期性变化，采用随机森林、支持向量机、神经网络等算法来构建预测模型，提高预测的准确性和时效性。
+3. **物理模型与数值模拟**：结合大气物理、流体力学等领域的知识，建立物理模型，利用数值模拟技术来模拟极端气候事件的生成机制和发展过程。这些模型可以更深入地理解极端气候事件的物理本质，为预测提供科学依据。
+4. **集成学习与模型融合**：通过集成学习技术，将统计模型、物理模型及机器学习模型进行融合，构建综合预测模型。模型融合可以充分利用不同模型的优势，提高整体预测性能，减少单一模型的不确定性。
+5. **预警系统设计**：开发一套高效、可靠的预警系统，确保预测结果能够及时、准确地传达给政府决策者、应急管理部门和公众。预警系统应具备实时数据处理、快速响应和多渠道信息传播能力，以确保在极端气候事件发生前，相关人员能够采取有效措施，减少灾害损失。
+6. **反馈与优化**：建立一个持续反馈机制，收集极端气候事件发生后的实际数据，与预测结果进行对比分析，评估预测模型的性能。根据反馈信息不断优化模型参数和预警策略，提高系统的预测能力和响应效率。
+7. **跨学科合作与公众参与**：加强气象学、统计学、计算机科学等领域的专家合作，促进知识交流和技术共享。同时，鼓励公众参与极端气候事件的监测与预防，提高社会整体的气候适应能力。
+通过上述步骤，我们可以构建一个更加精确、高效的极端气候事件预测与预警系统，为人类社会应对气候变化带来的挑战提供有力支持。</t>
+  </si>
+  <si>
+    <t>极端气候事件对生态系统的影响及恢复策略是一个多学科交叉的研究领域，需要生态学、环境科学、生物学等领域的专家共同努力，以探索有效的保护与恢复措施。极端气候事件，如干旱、洪水、风暴和热浪，对不同类型的生态系统造成了显著的影响，这些影响可以从个体层面扩展到物种、群落乃至整个生态系统的层面。
+1. **对生态系统的影响**：
+   - **森林生态系统**：极端气候事件可能导致森林火灾的频发，减少树木的生长和繁殖，破坏森林结构，降低生物多样性。长期干旱还会影响树木的水分利用效率，加剧生态系统的碳排放。
+   - **湿地生态系统**：洪水和干旱等极端天气会改变湿地的水文条件，影响湿地植物的生存，减少湿地动物的食物来源，破坏湿地的生态服务功能，如净化水质、调节洪水。
+   - **海洋生态系统**：海洋热浪可以导致珊瑚白化，减少海洋生物的栖息地，影响海洋食物链，降低海洋生物多样性。此外，极端的风暴活动还会导致海岸侵蚀，破坏海洋生态系统的结构。
+2. **生态系统恢复策略**：
+   - **生态修复与重建**：对于受损严重的生态系统，可以通过种植当地原生植物、恢复自然水文条件、移除入侵物种等措施来促进生态系统的自然恢复过程。例如，在森林生态系统中，可以实施火灾后的森林再造林计划，种植适应当地气候的树种，以促进森林的快速恢复。
+   - **生物多样性保护**：保护和恢复生态系统的关键在于维护生物多样性。这包括保护关键物种、恢复受损的生态系统、以及建立生态廊道，以增强生态系统的连通性和恢复力。
+   - **环境监测与适应性管理**：通过建立长期的生态系统监测网络，可以及时发现生态系统的异常变化，为采取适应性管理措施提供科学依据。适应性管理包括对生态系统进行定期评估，根据评估结果调整管理措施，以应对不断变化的环境条件。
+   - **公众参与与教育**：提高公众对生态系统保护的意识是恢复受损生态系统的重要途径。通过教育活动和社区参与项目，可以增强公众对环境问题的理解，促进环境保护行动的实施。
+综上所述，极端气候事件对生态系统的影响是深远的，但通过科学的方法和策略，我们可以有效地减轻这些影响，促进生态系统的恢复和保护，为未来的生态安全奠定基础。这一过程需要政府、科研机构、非政府组织和社区的共同努力，通过多方面的合作，共同应对全球气候变化带来的挑战。</t>
+  </si>
+  <si>
+    <t>针对社会经济系统对极端气候事件的脆弱性评估与适应策略，我们可以从以下几个方面进行深入探讨和分析：
+1. **脆弱性评估模型的构建**：
+   - **社会经济系统的分类**：首先，我们需要对不同的社会经济系统进行分类，比如农业、工业、基础设施等。每个系统的特性不同，因此它们面对极端气候事件时的脆弱性也有所不同。
+   - **气候变量的识别**：识别影响这些系统的极端气候事件类型，如洪水、干旱、热浪、台风等，并收集历史数据，分析这些事件发生的频率、强度及其对不同社会经济系统的影响。
+   - **影响评估模型**：建立数学模型来量化极端气候事件对社会经济系统的影响。这可以包括损失评估模型（如农作物损失、基础设施损坏）、恢复时间模型（系统恢复到正常运行状态所需的时间）等。
+2. **适应策略的制定**：
+   - **政策支持**：政府可以通过制定相应的政策来增强社会经济系统的适应能力。例如，为农业提供保险补贴，减少农民因极端气候事件造成的经济损失；提高基础设施建设标准，使其能够更好地抵御极端气候事件。
+   - **技术创新**：鼓励和支持技术创新，以提高社会经济系统的抗灾能力。例如，发展节水技术和抗旱作物品种，提高农业系统的抗旱能力；采用更先进的材料和设计方法，增强基础设施的耐受性。
+   - **社区参与**：加强社区层面的准备和应对能力，通过教育和培训提高公众对极端气候事件的认识，建立社区应急响应机制，确保在灾害发生时能够迅速采取行动。
+3. **跨学科合作**：
+   - **多学科团队建设**：组建包括经济学家、社会学家、城市规划师、气象学家等多学科专家的团队，共同研究和制定适应策略。通过跨学科的合作，可以更全面地考虑各种因素，提高策略的科学性和可行性。
+   - **数据共享与合作研究**：建立数据共享平台，促进不同领域之间的数据交流和合作研究。这有助于更好地理解极端气候事件的复杂性，以及它们对社会经济系统的影响。
+4. **案例研究与实证分析**：
+   - **全球案例分析**：通过分析全球范围内成功应对极端气候事件的案例，总结经验教训，为制定适应策略提供参考。例如，荷兰在洪水管理方面的经验、澳大利亚在干旱应对方面的措施等。
+   - **本地化适应策略**：根据当地的实际情况，定制化地设计适应策略。考虑到不同地区的地理、经济、社会条件各不相同，适应策略需要因地制宜，确保其有效性和可实施性。
+通过上述方法，我们可以更系统地评估社会经济系统对极端气候事件的脆弱性，并制定有效的适应策略，从而减少极端气候事件对社会经济的影响，提高社会整体的抗灾能力。</t>
+  </si>
+  <si>
+    <t>在应对极端气候的过程中，公众参与与教育是至关重要的环节。为了提高公众对极端气候风险的认识，以及在面对极端气候事件时的自我保护能力，我们需要从以下几个方面入手：
+1. **跨学科合作设计教育内容**：教育内容应当由教育学、传播学、心理学等领域的专家共同设计，确保内容既科学又易于理解。例如，可以通过案例分析、模拟演习等形式，让公众在实践中学习如何应对极端气候事件，同时利用心理学原理，增强信息的吸引力和记忆点。
+2. **利用多媒体和社交平台进行广泛传播**：利用现代信息技术，通过电视、互联网、社交媒体等多渠道传播教育内容。这不仅可以扩大覆盖面，还能根据不同群体的特点定制化传播策略，如为儿童设计动画视频，为老年人提供简明的图解手册等。
+3. **建立社区参与机制**：鼓励社区组织参与极端气候应对的教育与培训活动，形成自下而上的参与模式。社区可以定期举办讲座、研讨会等活动，邀请专业人士讲解应对知识，同时也为居民提供一个交流经验的平台。此外，可以建立志愿者网络，培训志愿者成为社区内的应急响应力量。
+4. **强化政策支持和资金保障**：政府应出台相关政策，支持极端气候应对教育和公众参与活动的开展，并提供必要的资金支持。这包括为教育项目提供资金补助，为参与活动的社区组织和个人提供奖励等。
+5. **评估与反馈机制**：建立系统的评估与反馈机制，定期对教育和参与活动的效果进行评估，收集公众的意见和建议，及时调整和优化活动内容和方式。通过持续的改进，确保教育和参与活动能够更加有效地提升公众的应对能力。
+通过上述措施的实施，可以有效地提高公众对极端气候风险的认识，增强其应对极端气候事件的能力，从而减少极端气候事件对社会的影响，保障人民的生命财产安全。</t>
+  </si>
+  <si>
+    <t>在应对极端气候事件的过程中，国际合作机制扮演着至关重要的角色。极端气候事件，如热浪、洪水、干旱和飓风等，不仅对受影响国家的生态环境和社会经济造成了严重的影响，而且对全球的可持续发展构成了挑战。因此，通过国际合作机制来协调各国的应对措施，对于减轻极端气候事件的影响和推动全球气候治理具有重要意义。
+1. **国际协议的作用**：国际协议，如《巴黎协定》和《联合国气候变化框架公约》（UNFCCC），为各国共同应对气候变化提供了法律框架。这些协议设定了减少温室气体排放的目标，并鼓励成员国之间共享最佳实践和技术，以降低碳排放并增强对极端气候事件的适应能力。通过国际协议，各国可以共同制定和实施气候行动计划，提高全球应对极端气候的能力。
+2. **资金支持**：应对极端气候事件往往需要大量的资金投入，用于改善基础设施、提高预警系统的能力、恢复受损的生态系统等。国际组织，如世界银行、亚洲开发银行和绿色气候基金（GCF），通过提供资金支持，帮助发展中国家增强其应对极端气候的能力。此外，发达国家通过资金转移机制对发展中国家提供财政援助，也是国际合作的重要组成部分。
+3. **技术转移**：技术转移对于提高发展中国家应对极端气候的能力至关重要。发达国家拥有先进的监测技术、预警系统和灾害管理经验，通过技术转移机制，这些国家可以将这些技术和经验分享给发展中国家，帮助后者提升其在极端气候事件中的韧性。例如，建立跨国界的气象观测网络，共享气象数据，可以有效提高地区对极端天气事件的预测和应对能力。
+4. **知识共享与能力建设**：国际合作还包括了知识共享和能力建设。通过国际会议、研讨会和培训项目，各国专家可以交流最新的研究成果和实践经验，共同研究应对极端气候的有效策略。这些活动不仅有助于提高各国的专业能力，还促进了不同国家和地区之间的理解和协作。
+5. **区域合作**：在特定区域内，国家之间的合作对于应对极端气候事件尤为重要。例如，在东南亚，湄公河委员会等区域组织在水资源管理和防洪减灾方面发挥了重要作用。区域合作有助于协调跨国水域的管理和利用，减少资源冲突，共同应对气候变化带来的挑战。
+综上所述，通过建立有效的国际合作机制，不仅能够促进各国在资金、技术和知识方面的交流合作，还能够在面对极端气候事件时，形成更加协调一致的应对策略，提高全球社会的气候适应能力。随着全球气候变化的加剧，国际合作在应对极端气候事件中的作用将变得更加突出。</t>
+  </si>
+  <si>
+    <t>针对极端气候应对这一主题，不同学科的专家对核心子问题进行了深入分析和解决。以下是每个子问题的详细分析：
+1. **极端气候事件的预测与预警系统构建**：
+   - **数据收集与处理**：收集历史气象数据，包括温度、降水、风速、气压等关键参数，以及极端气候事件的发生记录。数据需要进行清洗、缺失值处理和异常值检测。
+   - **统计模型与机器学习**：利用统计方法和机器学习算法分析历史数据，识别极端气候事件的前兆和模式。可以使用时间序列分析、随机森林、支持向量机、神经网络等算法。
+   - **物理模型与数值模拟**：结合大气物理、流体力学等领域的知识，建立物理模型，利用数值模拟技术模拟极端气候事件的生成和发展过程。
+   - **集成学习与模型融合**：将统计模型、物理模型及机器学习模型进行融合，构建综合预测模型，提高预测性能。
+   - **预警系统设计**：开发高效的预警系统，确保预测结果能够及时、准确地传达给政府决策者、应急管理部门和公众。
+   - **反馈与优化**：建立持续反馈机制，收集实际数据，评估预测模型的性能，不断优化模型参数和预警策略。
+   - **跨学科合作与公众参与**：促进气象学、统计学、计算机科学等领域的专家合作，鼓励公众参与监测与预防。
+2. **极端气候事件对生态系统的影响及恢复策略**：
+   - **对生态系统的影响**：
+     - **森林生态系统**：极端气候事件可能导致森林火灾频发，减少树木生长，破坏森林结构，降低生物多样性。
+     - **湿地生态系统**：洪水和干旱等极端天气会改变湿地的水文条件，影响植物生存，减少动物食物来源，破坏生态服务功能。
+     - **海洋生态系统**：海洋热浪导致珊瑚白化，减少海洋生物栖息地，影响食物链，降低生物多样性。
+   - **生态系统恢复策略**：
+     - **生态修复与重建**：种植当地原生植物，恢复自然水文条件，移除入侵物种，促进生态系统的自然恢复。
+     - **生物多样性保护**：保护关键物种，恢复受损生态系统，建立生态廊道，增强生态系统的连通性和恢复力。
+     - **环境监测与适应性管理**：建立长期的生态系统监测网络，定期评估生态系统，根据评估结果调整管理措施。
+     - **公众参与与教育**：提高公众对生态系统保护的意识，通过教育活动和社区参与项目，增强公众对环境问题的理解和行动。
+3. **社会经济系统对极端气候事件的脆弱性评估与适应策略**：
+   - **脆弱性评估模型的构建**：
+     - **社会经济系统的分类**：对不同社会经济系统（如农业、工业、基础设施等）进行分类，识别其面对极端气候事件的脆弱性。
+     - **气候变量的识别**：识别影响这些系统的极端气候事件类型，收集历史数据，分析事件的频率、强度及其影响。
+     - **影响评估模型**：建立数学模型量化极端气候事件的影响，包括损失评估模型和恢复时间模型。
+   - **适应策略的制定**：
+     - **政策支持**：政府制定政策，增强社会经济系统的适应能力，如为农业提供保险补贴，提高基础设施建设标准。
+     - **技术创新**：鼓励技术创新，提高系统的抗灾能力，如发展节水技术和抗旱作物品种，采用先进材料和设计方法增强基础设施的耐受性。
+     - **社区参与**：加强社区层面的准备和应对能力，通过教育和培训提高公众的应对能力，建立社区应急响应机制。
+4. **极端气候应对中的公众参与与教育**：
+   - **跨学科合作设计教育内容**：教育内容由教育学、传播学、心理学等领域的专家共同设计，确保内容科学、易于理解。
+   - **利用多媒体和社交平台广泛传播**：通过电视、互联网、社交媒体等多渠道传播教育内容，根据不同群体的特点定制化传播策略。
+   - **建立社区参与机制**：鼓励社区组织参与教育和培训活动，形成自下而上的参与模式，建立志愿者网络，培训志愿者成为社区内的应急响应力量。
+   - **强化政策支持和资金保障**：政府出台政策，支持教育和参与活动的开展，提供必要的资金支持。
+   - **评估与反馈机制**：建立评估与反馈机制，定期评估教育和参与活动的效果，收集意见和建议，及时调整和优化活动内容和方式。
+5. **国际和区域合作机制在极端气候应对中的角色**：
+   - **国际协议的作用**：国际协议（如《巴黎协定》和《联合国气候变化框架公约》）为各国共同应对气候变化提供了法律框架，设定减排目标，鼓励技术共享。
+   - **资金支持**：国际组织（如世界银行、亚洲开发银行、绿色气候基金）提供资金支持，帮助发展中国家增强应对能力。
+   - **技术转移**：发达国家向发展中国家转移先进的监测技术、预警系统和灾害管理经验，提高后者的应对能力。
+   - **知识共享与能力建设**：通过国际会议、研讨会和培训项目，各国专家交流研究成果和实践经验，共同研究应对策略。
+   - **区域合作**：特定区域内的国家合作，如湄公河委员会在水资源管理和防洪减灾方面的合作，协调跨国水域的管理和利用，减少资源冲突，共同应对气候变化。
+通过上述措施，我们可以更系统地评估和应对极端气候事件，提高社会经济系统的适应能力，增强公众的应对能力，促进国际合作，共同应对全球气候变化的挑战。</t>
+  </si>
+  <si>
+    <t>构建极端气候事件的预测与预警系统是一个复杂的多学科问题，涉及气候学、气象学、统计学、计算机科学以及物理学等多个领域的知识。在这个系统中，物理学的建模与量化分析方法将起到关键作用，特别是在理解极端气候事件的本质、提高预测精度以及优化预警系统方面。
+1. **历史数据的利用与物理建模**:
+   - **数据收集与处理**：首先，我们需要收集和整理历史气候数据，包括但不限于温度、降水、风速、气压等。这些数据可以从气象站、卫星遥感以及再分析数据集中获得。通过对这些数据的清洗与处理，确保其准确性和一致性，为后续的建模分析提供坚实的基础。
+   - **物理模型构建**：基于整理后的数据，结合流体力学、热力学等基本物理原理，构建气候系统模型。例如，使用数值天气预报模型（如WRF, Weather Research and Forecasting Model）和全球气候模型（如CMIP, Coupled Model Intercomparison Project）来模拟大气和海洋的动力学过程，以及它们之间的相互作用。这些模型能够帮助我们更好地理解极端气候事件的发生机制和发展趋势。
+2. **模型模拟与机器学习融合**:
+   - **模型改进与验证**：利用机器学习技术，如深度学习和强化学习，对物理模型进行改进，提高对极端气候事件的预测能力。例如，通过训练神经网络模型来识别和预测极端气候事件的特征模式，进而优化物理模型的参数设置，提高预测的准确性。
+   - **多模型集成**：采用多模型集成方法，结合不同的物理模型和机器学习模型，以减少单一模型的不确定性和偏差，提高预测结果的可靠性。
+3. **预警系统的开发**:
+   - **实时监测与预测**：建立一个集实时监测和预测于一体的系统，能够实时获取最新的气象数据，通过上述模型进行快速分析和预测，为决策者提供及时的预警信息。
+   - **预警信息发布**：开发高效的信息发布平台，确保预警信息能够通过多种渠道（如手机应用、社交媒体、广播电视等）迅速传达给公众和相关机构，以便采取及时的应对措施。
+   - **风险管理与响应计划**：与地方政府、救援机构等合作，制定和完善极端气候事件的风险管理和应急响应计划，确保在灾害发生时能够快速有效地减少损失。
+4. **持续的研究与改进**:
+   - **反馈与评估**：建立一个反馈机制，对每一次极端气候事件的预测和预警效果进行评估，不断优化模型和系统。
+   - **跨学科合作**：加强与气候科学、环境科学、地理信息系统等领域的合作，吸收最新的研究成果，持续提升系统的预测能力和预警效果。
+通过上述步骤的实施，我们可以显著提高极端气候事件的预测精度和预警能力，为减少自然灾害带来的损失、保障人民生命财产安全做出贡献。</t>
+  </si>
+  <si>
+    <t>极端气候事件，如干旱、洪水、热浪和飓风等，对生态系统的影响是深远且多方面的。首先，这些极端事件可以直接导致生物多样性的减少。例如，热浪可能导致某些物种无法承受高温而死亡，洪水则可能破坏栖息地，导致物种迁移或灭绝。其次，极端气候事件会影响生态系统的功能，如水分循环、碳循环和养分循环等。例如，长期干旱会导致植物光合作用减弱，进而影响碳固定能力，减少土壤有机质的积累。
+对于森林生态系统，极端气候事件可能导致树木死亡率增加，植被覆盖率下降，土壤侵蚀加剧。这些变化不仅破坏了森林的结构和功能，还可能引发连锁反应，如增加森林火灾的风险，影响森林碳储存的能力，进而加重全球变暖的问题。恢复策略包括种植抗旱或抗病的树种，建立防火带和加强火灾监测系统，以及通过人工干预促进自然再生。
+湿地生态系统对极端气候事件也非常敏感。洪水可能导致湿地淹没，改变水文条件，影响物种组成；而干旱则可能导致湿地干涸，破坏了湿地的蓄水功能。湿地的恢复策略需要考虑到水文条件的恢复，如通过人工补水或改变排水系统来维持适当的水分条件。同时，通过移除入侵物种和恢复本土植物，可以增强湿地的生态韧性。
+海洋生态系统在面对极端气候事件时，如海洋热浪、海平面上升和海洋酸化，同样面临巨大挑战。这些事件不仅影响海洋生物的生存环境，还会改变海洋生态系统的服务功能，如食物供应和碳吸收。海洋生态恢复策略包括建立海洋保护区，减少过度捕捞，以及推广使用海洋友好型技术，如减少海洋污染的措施。
+总之，极端气候事件对生态系统的影响是复杂的，需要综合考虑生物多样性保护、生态系统服务功能的维持和恢复、以及气候变化适应策略的制定。多学科合作和国际间合作在此过程中至关重要，通过科学研究、政策制定和技术应用，可以有效提高生态系统的恢复力，减轻极端气候事件带来的负面影响。</t>
+  </si>
+  <si>
+    <t>在评估社会经济系统对极端气候事件的脆弱性和制定适应策略时，我们首先需要理解几个关键概念：脆弱性、暴露度、敏感性和适应能力。社会经济系统的脆弱性是指在面对极端气候事件时，该系统遭受损害的可能性和程度。这种脆弱性可以通过系统的暴露度（即系统受极端气候事件影响的程度）、敏感性（即系统对极端气候事件响应的敏感程度）以及适应能力（即系统在极端气候事件后恢复和调整的能力）来衡量。
+### 评估方法
+1. **暴露度分析**：通过地理信息系统（GIS）和遥感技术，可以识别哪些地区和系统最容易受到极端气候事件的影响。例如，沿海地区的基础设施可能更容易受到海平面上升和风暴潮的影响。
+2. **敏感性分析**：利用历史数据和模型模拟，评估社会经济系统在遭遇极端气候事件时可能的响应。这包括经济模型、社会模型和生态系统模型的综合应用。
+3. **适应能力评估**：评估现有政策、技术和社区响应能力。这可以通过调查问卷、案例研究和专家访谈等方式进行。重要的是评估这些适应措施的实际效果，以及它们在不同时间尺度上的可持续性。
+### 适应策略
+1. **政策层面**：
+   - **风险转移和保险**：通过建立气候风险保险机制，减少极端气候事件对个人和企业的经济负担。
+   - **长期规划**：在城市规划和基础设施建设中考虑气候变化的影响，采用更灵活和可持续的设计标准。
+   - **资金支持**：政府和国际机构提供资金支持，帮助脆弱地区和社区增强其适应能力。
+2. **技术层面**：
+   - **早期预警系统**：利用先进的气象预报技术，建立和完善极端气候事件的早期预警系统，减少人员伤亡和经济损失。
+   - **绿色基础设施**：投资于绿色基础设施，如湿地恢复、城市绿化等，以增强自然系统的缓冲能力。
+   - **水资源管理**：改进水资源管理技术，如雨水收集和再利用，以应对干旱和洪水等极端气候事件。
+3. **社区层面**：
+   - **公众教育和培训**：提高公众对极端气候事件的认识，通过教育和培训增强社区的自救能力。
+   - **社区组织**：建立社区应急响应组织，制定应急预案，确保在极端气候事件发生时能够迅速有效地应对。
+   - **社会支持网络**：建立社会支持网络，为受影响的个人和家庭提供心理、经济和社会支持。
+### 跨学科合作
+为了更有效地评估和应对极端气候事件对社会经济系统的影响，需要进行跨学科合作。这包括气象学、地理学、经济学、社会学、工程学等多个学科的专家共同参与。通过综合各学科的知识和方法，可以更全面地理解和解决这一复杂问题。
+### 结论
+综上所述，评估社会经济系统对极端气候事件的脆弱性并制定适应策略是一个多维度、跨学科的问题。通过科学的方法和系统的分析，我们可以识别出系统的薄弱环节，并采取有效的措施来增强其适应能力。这不仅需要政府和国际机构的支持，还需要社会各界的广泛参与和合作。</t>
+  </si>
+  <si>
+    <t>针对“极端气候应对”这一主题，不同学科的专家对核心子问题进行了深入分析和解决。以下是每个子问题的详细分析：
+### 1. 极端气候事件的预测与预警系统构建
+**物理学教授的分析**：
+- **数据收集与处理**：收集和整理历史气候数据，包括温度、降水、风速、气压等，确保数据的准确性和一致性。
+- **物理模型构建**：结合流体力学、热力学等基本物理原理，构建气候系统模型，使用数值天气预报模型（如WRF）和全球气候模型（如CMIP）来模拟大气和海洋的动力学过程。
+- **模型改进与验证**：利用机器学习技术（如深度学习和强化学习）优化物理模型的参数设置，提高预测的准确性。
+- **多模型集成**：采用多模型集成方法，结合不同的物理模型和机器学习模型，减少单一模型的不确定性和偏差。
+- **预警系统开发**：建立集实时监测和预测于一体的系统，确保预警信息能够通过多种渠道迅速传达给公众和相关机构。
+### 2. 极端气候事件对生态系统的影响及恢复策略
+**生物学教授的分析**：
+- **对生态系统的影响**：
+  - **森林生态系统**：极端气候事件可能导致树木死亡率增加，植被覆盖率下降，土壤侵蚀加剧，增加森林火灾的风险，影响森林碳储存能力。
+  - **湿地生态系统**：洪水和干旱改变湿地的水文条件，影响植物生存，减少动物食物来源，破坏生态服务功能。
+  - **海洋生态系统**：海洋热浪导致珊瑚白化，减少海洋生物栖息地，影响食物链，降低生物多样性。
+- **生态系统恢复策略**：
+  - **生态修复与重建**：种植当地原生植物，恢复自然水文条件，移除入侵物种，促进生态系统的自然恢复。
+  - **生物多样性保护**：保护关键物种，恢复受损生态系统，建立生态廊道，增强生态系统的连通性和恢复力。
+  - **环境监测与适应性管理**：建立长期的生态系统监测网络，定期评估生态系统，根据评估结果调整管理措施。
+  - **公众参与与教育**：提高公众对生态系统保护的意识，通过教育活动和社区参与项目，增强公众的环境问题理解和行动。
+### 3. 社会经济系统对极端气候事件的脆弱性评估与适应策略
+**数学教授的分析**：
+- **评估方法**：
+  - **暴露度分析**：通过地理信息系统（GIS）和遥感技术，识别哪些地区和系统最容易受到极端气候事件的影响。
+  - **敏感性分析**：利用历史数据和模型模拟，评估社会经济系统在遭遇极端气候事件时可能的响应。
+  - **适应能力评估**：评估现有政策、技术和社区响应能力，通过调查问卷、案例研究和专家访谈等方式进行。
+- **适应策略**：
+  - **政策层面**：建立气候风险保险机制，减少极端气候事件对个人和企业的经济负担；在城市规划和基础设施建设中考虑气候变化的影响；提供资金支持，帮助脆弱地区和社区增强其适应能力。
+  - **技术层面**：建立和完善极端气候事件的早期预警系统；投资于绿色基础设施，增强自然系统的缓冲能力；改进水资源管理技术，应对干旱和洪水等极端气候事件。
+  - **社区层面**：提高公众对极端气候事件的认识，通过教育和培训增强社区的自救能力；建立社区应急响应组织，制定应急预案；建立社会支持网络，为受影响的个人和家庭提供支持。
+### 4. 极端气候应对中的公众参与与教育
+**人工智能教授的分析**：
+- **跨学科合作设计教育内容**：教育内容由教育学、传播学、心理学等领域的专家共同设计，确保内容科学、易于理解。
+- **利用多媒体和社交平台广泛传播**：通过电视、互联网、社交媒体等多渠道传播教育内容，根据不同群体的特点定制化传播策略。
+- **建立社区参与机制**：鼓励社区组织参与教育和培训活动，形成自下而上的参与模式，建立志愿者网络，培训志愿者成为社区内的应急响应力量。
+- **强化政策支持和资金保障**：政府出台政策支持教育和参与活动的开展，提供必要的资金支持。
+- **评估与反馈机制**：建立评估与反馈机制，定期评估教育和参与活动的效果，收集意见和建议，及时调整和优化活动内容和方式。
+### 5. 国际和区域合作机制在极端气候应对中的角色
+**地理学教授的分析**：
+- **国际协议的作用**：国际协议（如《巴黎协定》和《联合国气候变化框架公约》）为各国共同应对气候变化提供了法律框架，设定减排目标，鼓励技术共享。
+- **资金支持**：国际组织（如世界银行、亚洲开发银行、绿色气候基金）提供资金支持，帮助发展中国家增强应对能力。
+- **技术转移**：发达国家向发展中国家转移先进的监测技术、预警系统和灾害管理经验，提高后者的应对能力。
+- **知识共享与能力建设**：通过国际会议、研讨会和培训项目，各国专家交流研究成果和实践经验，共同研究应对策略。
+- **区域合作**：特定区域内的国家合作，如湄公河委员会在水资源管理和防洪减灾方面的合作，协调跨国水域的管理和利用，减少资源冲突，共同应对气候变化。
+通过上述措施的实施，我们可以更系统地评估和应对极端气候事件，提高社会经济系统的适应能力，增强公众的应对能力，促进国际合作，共同应对全球气候变化的挑战。</t>
+  </si>
+  <si>
+    <t>**项目申请书**
+**摘要**
+本项目旨在构建一个系统性的、具备操作性的科学解决方案，以应对极端气候事件带来的挑战。通过多学科合作，项目将综合运用地理信息科学、生态学、社会经济学、公共管理等领域的知识和技术，构建极端气候事件的预测预警系统，评估其对生态系统和社会经济系统的影响，并制定相应的恢复和适应策略。同时，项目还将探索公众参与和教育的机制，以及国际和区域合作在应对极端气候中的角色，旨在为政府决策提供科学依据，为社会经济发展提供支撑，为公众参与提供指导，为国际合作提供范式。
+**研究背景和意义**
+随着全球气候变化的加剧，极端气候事件（如高温、干旱、洪水、风暴等）的频率和强度显著增加，给人类社会带来了巨大的挑战。极端气候事件不仅对自然生态系统造成破坏，影响生物多样性和生态服务功能，也对社会经济系统造成重大损失，影响人类的生存和发展。因此，如何有效预测和应对极端气候事件，成为当前亟待解决的重大科学问题和社会问题。本项目的研究将为提升国家和地区对极端气候事件的应对能力提供科学支持和技术保障。
+**研究内容**
+1. 极端气候事件的预测与预警系统的构建
+2. 极端气候事件对生态系统的影响及恢复策略
+3. 社会经济系统对极端气候事件的脆弱性评估与适应策略
+4. 极端气候应对中的公众参与与教育
+5. 国际和区域合作机制在极端气候应对中的角色
+**拟解决的科学问题**
+1. 如何提高极端气候事件预测的准确性和预警系统的可靠性？
+2. 极端气候事件对不同生态系统的影响机制是什么，如何制定有效的恢复策略？
+3. 社会经济系统对极端气候事件的脆弱性如何评估，如何制定适应策略？
+4. 如何通过公众参与和教育提高社会的应对能力？
+5. 国际和区域合作在极端气候应对中应扮演何种角色，如何促进合作？
+**拟提出的技术路线**
+1. **极端气候事件的预测与预警系统的构建**
+   - **数据收集与处理**：建立多源数据平台，汇集历史气象数据、遥感数据、地面监测数据等，进行数据清洗、预处理，构建数据库。
+   - **统计模型与机器学习**：基于历史数据，应用时间序列分析、统计回归模型、机器学习算法（如随机森林、支持向量机、神经网络等）识别极端气候事件的前兆特征和模式。
+   - **物理模型与数值模拟**：结合大气物理、流体力学等理论，利用数值模拟技术（如WRF模式、CEM模式等）模拟极端气候事件的生成和发展过程。
+   - **集成学习与模型融合**：通过集成学习方法，将统计模型、物理模型及机器学习模型进行融合，构建综合预测模型，提高预测性能。
+   - **预警系统设计**：开发预警平台，集成预测模型输出，设计预警信息推送机制，确保预测结果能够及时、准确地传达给决策者和公众。
+   - **反馈与优化**：建立持续反馈机制，收集实际数据，评估模型性能，优化模型参数和预警策略。
+   - **跨学科合作与公众参与**：促进跨学科合作，鼓励公众参与监测与预防，提高预警系统的社会接受度和实际效果。
+2. **极端气候事件对生态系统的影响及恢复策略**
+   - **影响评估**：利用遥感技术和GIS工具，评估极端气候事件对森林、湿地、海洋等生态系统的影响，包括生物多样性、生态结构和功能的变化。
+   - **生态修复与重建**：根据影响评估结果，制定生态修复计划，如恢复自然水文条件、移除入侵物种、种植原生植物等。
+   - **生物多样性保护**：建立关键物种保护名录，实施生物多样性保护项目，建立生态廊道，增强生态系统的连通性和恢复力。
+   - **环境监测与适应性管理**：建立长期的生态系统监测网络，定期评估生态系统健康状况，根据评估结果调整管理措施。
+   - **公众参与与教育**：开展公众教育活动，提高公众对生态系统保护的认识，鼓励社区参与生态恢复和保护工作。
+3. **社会经济系统对极端气候事件的脆弱性评估与适应策略**
+   - **系统分类与脆弱性识别**：对农业、工业、基础设施等社会经济系统进行分类，识别其面对极端气候事件的脆弱性。
+   - **气候变量的识别与影响评估**：收集历史气候数据，分析极端气候事件的频率和强度，建立数学模型评估极端气候事件对不同系统的影响。
+   - **适应策略制定**：基于脆弱性评估结果，制定适应策略，如提供政策支持、鼓励技术创新、加强社区参与等。
+4. **极端气候应对中的公众参与与教育**
+   - **教育内容设计**：跨学科合作设计教育内容，确保内容科学、易于理解。
+   - **多渠道传播**：利用多媒体和社交平台广泛传播教育内容，根据不同群体的特点定制化传播策略。
+   - **社区参与机制建立**：鼓励社区组织参与教育和培训活动，形成自下而上的参与模式，建立志愿者网络。
+   - **政策支持与资金保障**：政府出台政策支持教育和参与活动，提供必要的资金支持。
+   - **评估与反馈机制**：建立评估与反馈机制，定期评估活动效果，及时调整和优化内容和方式。
+5. **国际和区域合作机制在极端气候应对中的角色**
+   - **国际协议的作用**：分析国际协议对极端气候应对的法律框架和减排目标的设定，评估其在技术支持和资金提供方面的作用。
+   - **技术转移与资金支持**：研究国际组织如何通过技术转移和资金支持帮助发展中国家增强应对能力。
+   - **知识共享与能力建设**：通过国际会议、研讨会和培训项目，促进各国专家交流研究成果和实践经验，共同研究应对策略。
+   - **区域合作机制**：研究特定区域内国家在水资源管理、防洪减灾等方面的合作机制，评估合作对减少资源冲突、共同应对气候变化的影响。
+**预期成果**
+1. 构建一套高效的极端气候事件预测预警系统，提高预测准确性和预警的可靠性。
+2. 评估极端气候事件对生态系统的影响，制定有效的生态恢复策略，保护生物多样性。
+3. 建立社会经济系统对极端气候事件的脆弱性评估模型，制定适应策略，提高社会经济系统的抗灾能力。
+4. 通过公众参与和教育，提高社会对极端气候应对的认识和参与度，形成良好的社会应对机制。
+5. 探索国际和区域合作机制，为全球气候变化应对提供范式和经验。
+本项目的研究成果将为政府决策提供科学依据，为社会经济发展提供支撑，为公众参与提供指导，为国际合作提供范式，对提升国家和地区对极端气候事件的应对能力具有重要意义。</t>
   </si>
 </sst>
 </file>
@@ -603,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -656,125 +780,181 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
+      <c r="D16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
